--- a/CSC3510 S2021/Lectures/NodeJSExpress2RESTMCSecure.xlsx
+++ b/CSC3510 S2021/Lectures/NodeJSExpress2RESTMCSecure.xlsx
@@ -3460,7 +3460,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1664558" cy="311496"/>
+    <xdr:ext cx="1072409" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -3469,7 +3469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="914400" y="4953000"/>
-          <a:ext cx="1664558" cy="311496"/>
+          <a:ext cx="1072409" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,7 +3500,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>routes/appRoutes.js</a:t>
+            <a:t>routes/db.js</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8845,6 +8845,1412 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8802410" cy="4363502"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="9563100"/>
+          <a:ext cx="8802410" cy="4363502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>exports.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>read_a_task </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(req</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>res) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>getTaskById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(req.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>params</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.taskId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>task) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>            res.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>res.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(task)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>exports.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>update_a_task </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(req</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>res) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>updateById</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(req.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>params</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.taskId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, new Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(req.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>task) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>            res.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>res.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(task)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>exports.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>delete_a_task </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(req</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>res) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>remove</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>( req.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>params</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>.taskId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>task) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>            res.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>send</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>(err)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>res.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>({ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>message</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>'Task successfully deleted' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>70023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDC84E6-CEF5-4C5D-A64E-57B954D79F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="9023523"/>
+          <a:ext cx="885825" cy="406227"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDC84E6-CEF5-4C5D-A64E-57B954D79F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="9020175"/>
+          <a:ext cx="3981450" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9213,7 +10619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -9235,7 +10641,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
